--- a/output.xlsx
+++ b/output.xlsx
@@ -47,541 +47,541 @@
     <t>1001</t>
   </si>
   <si>
+    <t>PI-00001</t>
+  </si>
+  <si>
+    <t>610-001</t>
+  </si>
+  <si>
+    <t>610-000</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
     <t>PI-00002</t>
   </si>
   <si>
-    <t>610-001</t>
-  </si>
-  <si>
-    <t>610-000</t>
-  </si>
-  <si>
-    <t>1004</t>
+    <t>1005</t>
   </si>
   <si>
     <t>PI-00003</t>
   </si>
   <si>
-    <t>1005</t>
+    <t>1007</t>
   </si>
   <si>
     <t>PI-00004</t>
   </si>
   <si>
-    <t>1007</t>
+    <t>1009</t>
   </si>
   <si>
     <t>PI-00005</t>
   </si>
   <si>
-    <t>1009</t>
+    <t>1014</t>
   </si>
   <si>
     <t>PI-00006</t>
   </si>
   <si>
-    <t>1014</t>
+    <t>1015</t>
   </si>
   <si>
     <t>PI-00007</t>
   </si>
   <si>
-    <t>1015</t>
+    <t>1016</t>
   </si>
   <si>
     <t>PI-00008</t>
   </si>
   <si>
-    <t>1016</t>
+    <t>1017</t>
   </si>
   <si>
     <t>PI-00009</t>
   </si>
   <si>
-    <t>1017</t>
+    <t>1018</t>
   </si>
   <si>
     <t>PI-00010</t>
   </si>
   <si>
-    <t>1018</t>
+    <t>1020</t>
   </si>
   <si>
     <t>PI-00011</t>
   </si>
   <si>
-    <t>1020</t>
+    <t>1026</t>
   </si>
   <si>
     <t>PI-00012</t>
   </si>
   <si>
-    <t>1026</t>
+    <t>1034</t>
   </si>
   <si>
     <t>PI-00013</t>
   </si>
   <si>
-    <t>1034</t>
+    <t>1039</t>
   </si>
   <si>
     <t>PI-00014</t>
   </si>
   <si>
-    <t>1039</t>
+    <t>1045</t>
   </si>
   <si>
     <t>PI-00015</t>
   </si>
   <si>
-    <t>1045</t>
+    <t>2019</t>
   </si>
   <si>
     <t>PI-00016</t>
   </si>
   <si>
-    <t>2019</t>
+    <t>2019B</t>
   </si>
   <si>
     <t>PI-00017</t>
   </si>
   <si>
-    <t>2019B</t>
+    <t>2023D</t>
   </si>
   <si>
     <t>PI-00018</t>
   </si>
   <si>
-    <t>2023D</t>
+    <t>2023D2</t>
   </si>
   <si>
     <t>PI-00019</t>
   </si>
   <si>
-    <t>2023D2</t>
+    <t>2023E</t>
   </si>
   <si>
     <t>PI-00020</t>
   </si>
   <si>
-    <t>2023E</t>
+    <t>2023G</t>
   </si>
   <si>
     <t>PI-00021</t>
   </si>
   <si>
-    <t>2023G</t>
+    <t>2026</t>
   </si>
   <si>
     <t>PI-00022</t>
   </si>
   <si>
-    <t>2026</t>
+    <t>2027</t>
   </si>
   <si>
     <t>PI-00023</t>
   </si>
   <si>
-    <t>2027</t>
+    <t>2033</t>
   </si>
   <si>
     <t>PI-00024</t>
   </si>
   <si>
-    <t>2033</t>
+    <t>2036</t>
   </si>
   <si>
     <t>PI-00025</t>
   </si>
   <si>
-    <t>2036</t>
+    <t>2038</t>
   </si>
   <si>
     <t>PI-00026</t>
   </si>
   <si>
-    <t>2038</t>
+    <t>2045</t>
   </si>
   <si>
     <t>PI-00027</t>
   </si>
   <si>
-    <t>2045</t>
+    <t>2058</t>
   </si>
   <si>
     <t>PI-00028</t>
   </si>
   <si>
-    <t>2058</t>
+    <t>2061</t>
   </si>
   <si>
     <t>PI-00029</t>
   </si>
   <si>
-    <t>2061</t>
+    <t>2064</t>
   </si>
   <si>
     <t>PI-00030</t>
   </si>
   <si>
-    <t>2064</t>
+    <t>2067</t>
   </si>
   <si>
     <t>PI-00031</t>
   </si>
   <si>
-    <t>2067</t>
+    <t>2069</t>
   </si>
   <si>
     <t>PI-00032</t>
   </si>
   <si>
-    <t>2069</t>
+    <t>2071</t>
   </si>
   <si>
     <t>PI-00033</t>
   </si>
   <si>
-    <t>2071</t>
+    <t>2071C</t>
   </si>
   <si>
     <t>PI-00034</t>
   </si>
   <si>
-    <t>2071C</t>
+    <t>2073</t>
   </si>
   <si>
     <t>PI-00035</t>
   </si>
   <si>
-    <t>2073</t>
+    <t>2078</t>
   </si>
   <si>
     <t>PI-00036</t>
   </si>
   <si>
-    <t>2078</t>
+    <t>2084</t>
   </si>
   <si>
     <t>PI-00037</t>
   </si>
   <si>
-    <t>2084</t>
+    <t>2086</t>
   </si>
   <si>
     <t>PI-00038</t>
   </si>
   <si>
-    <t>2086</t>
+    <t>2087</t>
   </si>
   <si>
     <t>PI-00039</t>
   </si>
   <si>
-    <t>2087</t>
+    <t>2090</t>
   </si>
   <si>
     <t>PI-00040</t>
   </si>
   <si>
-    <t>2090</t>
+    <t>2094</t>
   </si>
   <si>
     <t>PI-00041</t>
   </si>
   <si>
-    <t>2094</t>
+    <t>2097</t>
   </si>
   <si>
     <t>PI-00042</t>
   </si>
   <si>
-    <t>2097</t>
+    <t>2104</t>
   </si>
   <si>
     <t>PI-00043</t>
   </si>
   <si>
-    <t>2104</t>
+    <t>2105</t>
   </si>
   <si>
     <t>PI-00044</t>
   </si>
   <si>
-    <t>2105</t>
+    <t>2108</t>
   </si>
   <si>
     <t>PI-00045</t>
   </si>
   <si>
-    <t>2108</t>
+    <t>2110</t>
   </si>
   <si>
     <t>PI-00046</t>
   </si>
   <si>
-    <t>2110</t>
+    <t>2126</t>
   </si>
   <si>
     <t>PI-00047</t>
   </si>
   <si>
-    <t>2126</t>
+    <t>2031D</t>
   </si>
   <si>
     <t>PI-00048</t>
   </si>
   <si>
-    <t>2031D</t>
+    <t>2039</t>
   </si>
   <si>
     <t>PI-00049</t>
   </si>
   <si>
-    <t>2039</t>
+    <t>2088</t>
   </si>
   <si>
     <t>PI-00050</t>
   </si>
   <si>
-    <t>2088</t>
+    <t>2002</t>
   </si>
   <si>
     <t>PI-00051</t>
   </si>
   <si>
-    <t>2002</t>
+    <t>2002B</t>
   </si>
   <si>
     <t>PI-00052</t>
   </si>
   <si>
-    <t>2002B</t>
+    <t>2002C</t>
   </si>
   <si>
     <t>PI-00053</t>
   </si>
   <si>
-    <t>2002C</t>
+    <t>2002D</t>
   </si>
   <si>
     <t>PI-00054</t>
   </si>
   <si>
-    <t>2002D</t>
+    <t>2002E</t>
   </si>
   <si>
     <t>PI-00055</t>
   </si>
   <si>
-    <t>2002E</t>
+    <t>2004</t>
   </si>
   <si>
     <t>PI-00056</t>
   </si>
   <si>
-    <t>2004</t>
+    <t>2004B</t>
   </si>
   <si>
     <t>PI-00057</t>
   </si>
   <si>
-    <t>2004B</t>
+    <t>2005</t>
   </si>
   <si>
     <t>PI-00058</t>
   </si>
   <si>
-    <t>2005</t>
+    <t>2005B</t>
   </si>
   <si>
     <t>PI-00059</t>
   </si>
   <si>
-    <t>2005B</t>
+    <t>2005C</t>
   </si>
   <si>
     <t>PI-00060</t>
   </si>
   <si>
-    <t>2005C</t>
+    <t>2005D</t>
   </si>
   <si>
     <t>PI-00061</t>
   </si>
   <si>
-    <t>2005D</t>
+    <t>2005E</t>
   </si>
   <si>
     <t>PI-00062</t>
   </si>
   <si>
-    <t>2005E</t>
+    <t>2009D</t>
   </si>
   <si>
     <t>PI-00063</t>
   </si>
   <si>
-    <t>2009D</t>
+    <t>2009E</t>
   </si>
   <si>
     <t>PI-00064</t>
   </si>
   <si>
-    <t>2009E</t>
+    <t>2009F</t>
   </si>
   <si>
     <t>PI-00065</t>
   </si>
   <si>
-    <t>2009F</t>
+    <t>2009H</t>
   </si>
   <si>
     <t>PI-00066</t>
   </si>
   <si>
-    <t>2009H</t>
+    <t>2010B</t>
   </si>
   <si>
     <t>PI-00067</t>
   </si>
   <si>
-    <t>2010B</t>
+    <t>2010C</t>
   </si>
   <si>
     <t>PI-00068</t>
   </si>
   <si>
-    <t>2010C</t>
+    <t>2010D</t>
   </si>
   <si>
     <t>PI-00069</t>
   </si>
   <si>
-    <t>2010D</t>
+    <t>2013</t>
   </si>
   <si>
     <t>PI-00070</t>
   </si>
   <si>
-    <t>2013</t>
+    <t>2015</t>
   </si>
   <si>
     <t>PI-00071</t>
   </si>
   <si>
-    <t>2015</t>
+    <t>2016</t>
   </si>
   <si>
     <t>PI-00072</t>
   </si>
   <si>
-    <t>2016</t>
+    <t>2018</t>
   </si>
   <si>
     <t>PI-00073</t>
   </si>
   <si>
-    <t>2018</t>
+    <t>2020A</t>
   </si>
   <si>
     <t>PI-00074</t>
   </si>
   <si>
-    <t>2020A</t>
+    <t>2020B</t>
   </si>
   <si>
     <t>PI-00075</t>
   </si>
   <si>
-    <t>2020B</t>
+    <t>2020D</t>
   </si>
   <si>
     <t>PI-00076</t>
   </si>
   <si>
-    <t>2020D</t>
+    <t>2024</t>
   </si>
   <si>
     <t>PI-00077</t>
   </si>
   <si>
-    <t>2024</t>
+    <t>2024B</t>
   </si>
   <si>
     <t>PI-00078</t>
   </si>
   <si>
-    <t>2024B</t>
+    <t>2024C</t>
   </si>
   <si>
     <t>PI-00079</t>
   </si>
   <si>
-    <t>2024C</t>
+    <t>2029</t>
   </si>
   <si>
     <t>PI-00080</t>
   </si>
   <si>
-    <t>2029</t>
+    <t>2034</t>
   </si>
   <si>
     <t>PI-00081</t>
   </si>
   <si>
-    <t>2034</t>
+    <t>2039B</t>
   </si>
   <si>
     <t>PI-00082</t>
   </si>
   <si>
-    <t>2039B</t>
+    <t>2059</t>
   </si>
   <si>
     <t>PI-00083</t>
   </si>
   <si>
-    <t>2059</t>
+    <t>2082</t>
   </si>
   <si>
     <t>PI-00084</t>
   </si>
   <si>
-    <t>2082</t>
+    <t>2082B</t>
   </si>
   <si>
     <t>PI-00085</t>
   </si>
   <si>
-    <t>2082B</t>
+    <t>2101</t>
   </si>
   <si>
     <t>PI-00086</t>
   </si>
   <si>
-    <t>2101</t>
+    <t>2101B</t>
   </si>
   <si>
     <t>PI-00087</t>
   </si>
   <si>
-    <t>2101B</t>
+    <t>2114</t>
   </si>
   <si>
     <t>PI-00088</t>
   </si>
   <si>
-    <t>2114</t>
+    <t>2119</t>
   </si>
   <si>
     <t>PI-00089</t>
-  </si>
-  <si>
-    <t>2119</t>
-  </si>
-  <si>
-    <t>PI-00090</t>
   </si>
 </sst>
 </file>
